--- a/bijiao.xlsx
+++ b/bijiao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕设\yolov5-streamlit-main\yolov5-streamlit-main\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7EA8CE3-BFCF-4A14-AEC1-DF92CBAF8DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F192B-A3FC-4676-9188-0E7A8DD43889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{5ECD3569-3AD8-419D-9284-744B83E4AA30}"/>
   </bookViews>
@@ -115,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,25 +266,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,7 +604,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -636,129 +639,129 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>38.700000000000003</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>34.6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>40.200000000000003</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>39.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>34.4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>13.5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>33.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>44.6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>39.200000000000003</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>47.7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>46.3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>42.8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <v>14.7</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="8">
         <v>39.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>40.299999999999997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>37.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>45.6</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>44.8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>43.7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>13.4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>37.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>41.4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>5.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>42.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>14.9</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>37.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>12.7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>25.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>44.7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>30.6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>46.9</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>42.6</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>15.9</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>33.4</v>
       </c>
     </row>
@@ -766,25 +769,25 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>46.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>39.1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>49.9</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>47.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>43.2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>18.2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>40.700000000000003</v>
       </c>
     </row>
